--- a/bill-of-materials.xlsx
+++ b/bill-of-materials.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxfa\Documents\Projects\wheelchair-soccer-launcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C81D63-C475-4B16-80AF-E16FA3517E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F445A7D-E40E-4973-A6A2-9EB310AD0F22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{487DE161-7B11-453D-BD1E-35278D2A3B64}"/>
+    <workbookView xWindow="28702" yWindow="2512" windowWidth="21795" windowHeight="12975" xr2:uid="{487DE161-7B11-453D-BD1E-35278D2A3B64}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Component List" sheetId="2" r:id="rId1"/>
@@ -855,7 +855,7 @@
   <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
